--- a/src/ACAT/assessment_results/COMP-335_FA24_01_outcomes.xlsx
+++ b/src/ACAT/assessment_results/COMP-335_FA24_01_outcomes.xlsx
@@ -471,10 +471,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Student_21</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -499,10 +497,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Student_22</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -527,10 +523,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Student_23</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -555,10 +549,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Student_24</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -583,10 +575,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Student_25</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
